--- a/public_html/allNodes.xlsx
+++ b/public_html/allNodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalo\Documents\PPStoryTeller\public_html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF31FF12-9D43-4CAF-AC69-D164BAE4410E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F94A054-B61C-45A2-A761-CC8CAB99F5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{14B8FD49-A3AA-489A-BB78-8F3ABA22BB01}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{14B8FD49-A3AA-489A-BB78-8F3ABA22BB01}"/>
   </bookViews>
   <sheets>
     <sheet name="allNodes" sheetId="1" r:id="rId1"/>
@@ -463,9 +463,6 @@
     <t>Corporations</t>
   </si>
   <si>
-    <t>We</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -479,6 +476,9 @@
   </si>
   <si>
     <t>Law Enforcement</t>
+  </si>
+  <si>
+    <t>TikTok</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1038,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>122931</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>73574</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -1110,13 +1110,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>171685</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>70241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>167744</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>70241</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -1220,6 +1220,11 @@
     <filterColumn colId="11">
       <filters>
         <filter val="ACTOR"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="12">
+      <filters>
+        <filter val="We"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1562,7 +1567,7 @@
   <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:M20"/>
+      <selection activeCell="M108" sqref="M108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1626,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1662,7 +1667,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1700,10 +1705,10 @@
         <v>15</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1744,7 +1749,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1782,10 +1787,10 @@
         <v>15</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1823,10 +1828,10 @@
         <v>15</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1864,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1905,10 +1910,10 @@
         <v>15</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1946,10 +1951,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1987,10 +1992,10 @@
         <v>15</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2028,10 +2033,10 @@
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2072,7 +2077,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2113,7 +2118,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2154,7 +2159,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2192,10 +2197,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2233,10 +2238,10 @@
         <v>15</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2315,10 +2320,10 @@
         <v>15</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2356,7 +2361,7 @@
         <v>15</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2397,7 +2402,7 @@
         <v>15</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
